--- a/input/hydrolab_data/KWF_Hydrolabs_ExciseData_Vogel.xlsx
+++ b/input/hydrolab_data/KWF_Hydrolabs_ExciseData_Vogel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\Active GitHub Projects\KWF_Vogel_Lakes_Pike\Miller_Creek_Vogel_Lake_WQX\input\hydrolab_data\vogel_lake_outlet_compiled\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\Active GitHub Projects\KWF_Vogel_Lakes_Pike\Miller_Creek_Vogel_Lake_WQX\input\hydrolab_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,7 @@
     <sheet name="DO" sheetId="3" r:id="rId3"/>
     <sheet name="Conductivity" sheetId="4" r:id="rId4"/>
     <sheet name="Temperature" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -683,51 +684,74 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>47418</v>
+      </c>
+      <c r="E2">
+        <v>148</v>
+      </c>
+      <c r="F2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>2021</v>
-      </c>
-      <c r="D2">
-        <v>47418</v>
-      </c>
-      <c r="E2">
-        <v>148</v>
-      </c>
-      <c r="F2">
-        <v>148</v>
-      </c>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
@@ -766,11 +790,6 @@
       </c>
       <c r="F4">
         <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/input/hydrolab_data/KWF_Hydrolabs_ExciseData_Vogel.xlsx
+++ b/input/hydrolab_data/KWF_Hydrolabs_ExciseData_Vogel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\Active GitHub Projects\KWF_Vogel_Lakes_Pike\Miller_Creek_Vogel_Lake_WQX\input\hydrolab_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben\Documents\GitHub\Active GitHub Projects\Miller_Creek_Vogel_Lake_WQX\input\hydrolab_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08E1F63-4DF4-40FF-BACB-0D0AA739E338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10200" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pH" sheetId="1" r:id="rId1"/>
@@ -24,20 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="13">
   <si>
     <t>pH</t>
   </si>
@@ -81,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -443,16 +436,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -472,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -481,6 +474,15 @@
       </c>
       <c r="C2">
         <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>47418</v>
+      </c>
+      <c r="E2">
+        <v>147</v>
+      </c>
+      <c r="F2">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -490,16 +492,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -519,7 +521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -536,16 +538,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -565,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -574,6 +576,65 @@
       </c>
       <c r="C2">
         <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>47418</v>
+      </c>
+      <c r="E2">
+        <v>147</v>
+      </c>
+      <c r="F2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>46440</v>
+      </c>
+      <c r="E3">
+        <v>179</v>
+      </c>
+      <c r="F3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>65979</v>
+      </c>
+      <c r="E4">
+        <v>168</v>
+      </c>
+      <c r="F4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -582,19 +643,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -614,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -627,52 +688,98 @@
       <c r="D2">
         <v>47418</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="E2">
+        <v>147</v>
+      </c>
+      <c r="F2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>46440</v>
+      </c>
+      <c r="E3">
+        <v>183</v>
+      </c>
+      <c r="F3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
+      </c>
+      <c r="D4">
+        <v>47418</v>
+      </c>
+      <c r="E4">
+        <v>198</v>
+      </c>
+      <c r="F4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -680,19 +787,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -712,7 +819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -726,14 +833,94 @@
         <v>47418</v>
       </c>
       <c r="E2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3">
+        <v>47418</v>
+      </c>
+      <c r="E3">
+        <v>154</v>
+      </c>
+      <c r="F3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
+      </c>
+      <c r="D4">
+        <v>47418</v>
+      </c>
+      <c r="E4">
+        <v>199</v>
+      </c>
+      <c r="F4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
+      </c>
+      <c r="D5">
+        <v>64822</v>
+      </c>
+      <c r="E5">
+        <v>193</v>
+      </c>
+      <c r="F5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>65979</v>
+      </c>
+      <c r="E6">
+        <v>193</v>
+      </c>
+      <c r="F6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -743,56 +930,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>2021</v>
-      </c>
-      <c r="D3">
-        <v>47418</v>
-      </c>
-      <c r="E3">
-        <v>155</v>
-      </c>
-      <c r="F3">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>2021</v>
-      </c>
-      <c r="D4">
-        <v>64822</v>
-      </c>
-      <c r="E4">
-        <v>195</v>
-      </c>
-      <c r="F4">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>